--- a/TPCH-Batch-Benchmarking-Values/Final and Spark - Aggregate and Formated.xlsx
+++ b/TPCH-Batch-Benchmarking-Values/Final and Spark - Aggregate and Formated.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Flink" sheetId="1" r:id="rId1"/>
     <sheet name="Spark" sheetId="3" r:id="rId2"/>
     <sheet name="Flink vs Cluster" sheetId="4" r:id="rId3"/>
+    <sheet name="Flink and Spark 100 GB" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="52">
   <si>
     <t>Query</t>
   </si>
@@ -158,6 +159,21 @@
   <si>
     <t>Spark - Local - 10 GB</t>
   </si>
+  <si>
+    <t>Flink 100 GB result</t>
+  </si>
+  <si>
+    <t>Spark 100 GB result</t>
+  </si>
+  <si>
+    <t>Average Values</t>
+  </si>
+  <si>
+    <t>Flink</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
 </sst>
 </file>
 
@@ -207,9 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,11 +460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="289787880"/>
-        <c:axId val="289788272"/>
+        <c:axId val="377754904"/>
+        <c:axId val="377760392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289787880"/>
+        <c:axId val="377754904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289788272"/>
+        <c:crossAx val="377760392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289788272"/>
+        <c:axId val="377760392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289787880"/>
+        <c:crossAx val="377754904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -639,6 +660,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flink - Execution TIme on Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Single Node - Scale 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -650,7 +732,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Cluster 10+'Flink Cluster'!$Q$4:$Q$23</c:v>
+            <c:v>Cluster</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -662,6 +744,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Flink!$K$31:$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Flink!$Q$4:$Q$24</c:f>
@@ -739,7 +892,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Local 10</c:v>
+            <c:v>Single Node</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -751,6 +904,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Flink!$K$31:$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Flink!$Q$31:$Q$51</c:f>
@@ -834,16 +1058,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="325339656"/>
-        <c:axId val="325340440"/>
+        <c:axId val="377759608"/>
+        <c:axId val="377758040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325339656"/>
+        <c:axId val="377759608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -880,7 +1105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325340440"/>
+        <c:crossAx val="377758040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325340440"/>
+        <c:axId val="377758040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,6 +1133,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time in Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -939,7 +1220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325339656"/>
+        <c:crossAx val="377759608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,11 +1515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="325341224"/>
-        <c:axId val="325340832"/>
+        <c:axId val="377758432"/>
+        <c:axId val="377755688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325341224"/>
+        <c:axId val="377758432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325340832"/>
+        <c:crossAx val="377755688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325340832"/>
+        <c:axId val="377755688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325341224"/>
+        <c:crossAx val="377758432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,6 +1715,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Spark- Execution TIme on Cluster and Single Node - Scale 10.0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1445,7 +1787,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Spark - Cluster 10</c:v>
+            <c:v>Cluster</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1457,6 +1799,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Spark!$K$4:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Spark!$Q$4:$Q$25</c:f>
@@ -1537,7 +1953,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Spark - Local 10</c:v>
+            <c:v>Single Node</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1549,6 +1965,80 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Spark!$K$4:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Spark!$Q$30:$Q$51</c:f>
@@ -1635,16 +2125,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="325338872"/>
-        <c:axId val="325342792"/>
+        <c:axId val="377759216"/>
+        <c:axId val="377756864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325338872"/>
+        <c:axId val="377759216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1681,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325342792"/>
+        <c:crossAx val="377756864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1689,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325342792"/>
+        <c:axId val="377756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,6 +2200,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time in Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1740,7 +2287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325338872"/>
+        <c:crossAx val="377759216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,6 +2299,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1803,6 +2382,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Queries Execution Time on Flink and Spark - Scale 1.0 - Cluster </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1814,15 +2454,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Flink vs Cluster'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Flink - Cluster - 1.0 GB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Flink</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1982,15 +2614,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Flink vs Cluster'!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spark - Cluster - 1.0 GB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Spark</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2156,11 +2780,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="325341616"/>
-        <c:axId val="325340048"/>
+        <c:axId val="378415144"/>
+        <c:axId val="378413968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325341616"/>
+        <c:axId val="378415144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325340048"/>
+        <c:crossAx val="378413968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325340048"/>
+        <c:axId val="378413968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,6 +2855,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> Time in Milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2262,7 +2953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325341616"/>
+        <c:crossAx val="378415144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,7 +2966,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2369,11 +3060,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Flink vs Cluster'!$E$3</c:f>
+              <c:f>'Flink vs Cluster'!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flink - Cluster - 10 GB</c:v>
+                  <c:v>Flink - Local - 1.0 GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2390,72 +3081,72 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$E$4:$E$24</c:f>
+              <c:f>'Flink vs Cluster'!$D$30:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>27853</c:v>
+                  <c:v>21759.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12401.8</c:v>
+                  <c:v>19796.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19329.400000000001</c:v>
+                  <c:v>16697.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19368.400000000001</c:v>
+                  <c:v>15246.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21577</c:v>
+                  <c:v>17127.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12971.4</c:v>
+                  <c:v>6821.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19395.599999999999</c:v>
+                  <c:v>19891.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20585.400000000001</c:v>
+                  <c:v>19632.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39152.400000000001</c:v>
+                  <c:v>23391.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20841.400000000001</c:v>
+                  <c:v>16504.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14247.6</c:v>
+                  <c:v>14038.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15372.4</c:v>
+                  <c:v>15329.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10414.200000000001</c:v>
+                  <c:v>13905.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13103.2</c:v>
+                  <c:v>20970.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23928.6</c:v>
+                  <c:v>16050.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13393.4</c:v>
+                  <c:v>19145.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48031.8</c:v>
+                  <c:v>20526.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42754.8</c:v>
+                  <c:v>20408.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42934.2</c:v>
+                  <c:v>21123.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19664.8</c:v>
+                  <c:v>17087.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9071.4</c:v>
+                  <c:v>18789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,11 +3157,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Flink vs Cluster'!$G$3</c:f>
+              <c:f>'Flink vs Cluster'!$F$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spark - Cluster - 10 GB</c:v>
+                  <c:v>Spark - Local - 1.0 GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2487,72 +3178,72 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$G$4:$G$24</c:f>
+              <c:f>'Flink vs Cluster'!$F$30:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33505.199999999997</c:v>
+                  <c:v>15914.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20919.8</c:v>
+                  <c:v>15065.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47282.2</c:v>
+                  <c:v>27687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54173.4</c:v>
+                  <c:v>15394.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32895.4</c:v>
+                  <c:v>16869.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12821.6</c:v>
+                  <c:v>3924.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42425</c:v>
+                  <c:v>25387.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38909.800000000003</c:v>
+                  <c:v>12987.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46962.6</c:v>
+                  <c:v>34730.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43176.4</c:v>
+                  <c:v>34537.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12487.6</c:v>
+                  <c:v>5305.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25255.8</c:v>
+                  <c:v>10959.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13518.2</c:v>
+                  <c:v>9398.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16832.8</c:v>
+                  <c:v>3658.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23346.2</c:v>
+                  <c:v>6403.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21289.4</c:v>
+                  <c:v>24865</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37688.800000000003</c:v>
+                  <c:v>10263.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45955.6</c:v>
+                  <c:v>14923.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44827.4</c:v>
+                  <c:v>7592.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37919.800000000003</c:v>
+                  <c:v>10727</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14104.2</c:v>
+                  <c:v>7811.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,12 +3258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="325338088"/>
-        <c:axId val="325343184"/>
+        <c:axId val="378415928"/>
+        <c:axId val="378416320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325338088"/>
+        <c:axId val="378415928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +3304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325343184"/>
+        <c:crossAx val="378416320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +3312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325343184"/>
+        <c:axId val="378416320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +3363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325338088"/>
+        <c:crossAx val="378415928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2780,11 +3470,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Flink vs Cluster'!$D$29</c:f>
+              <c:f>'Flink vs Cluster'!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flink - Local - 1.0 GB</c:v>
+                  <c:v>Flink - Local - 10 GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2801,72 +3491,72 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$D$30:$D$50</c:f>
+              <c:f>'Flink vs Cluster'!$E$30:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>21759.4</c:v>
+                  <c:v>53720.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19796.2</c:v>
+                  <c:v>24929.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16697.8</c:v>
+                  <c:v>46239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15246.6</c:v>
+                  <c:v>49488.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17127.2</c:v>
+                  <c:v>42433.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6821.4</c:v>
+                  <c:v>22836.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19891.400000000001</c:v>
+                  <c:v>45890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19632.599999999999</c:v>
+                  <c:v>39489.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23391.4</c:v>
+                  <c:v>88543.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16504.599999999999</c:v>
+                  <c:v>32974.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14038.4</c:v>
+                  <c:v>28888.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15329.8</c:v>
+                  <c:v>41763.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13905.6</c:v>
+                  <c:v>28876.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20970.599999999999</c:v>
+                  <c:v>78764.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16050.2</c:v>
+                  <c:v>40272</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19145.8</c:v>
+                  <c:v>34527.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20526.2</c:v>
+                  <c:v>72062.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20408.2</c:v>
+                  <c:v>72073.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21123.4</c:v>
+                  <c:v>54285.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17087.599999999999</c:v>
+                  <c:v>35424.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18789</c:v>
+                  <c:v>32954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,11 +3567,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Flink vs Cluster'!$F$29</c:f>
+              <c:f>'Flink vs Cluster'!$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spark - Local - 1.0 GB</c:v>
+                  <c:v>Spark - Local - 10 GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2898,72 +3588,72 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$F$30:$F$50</c:f>
+              <c:f>'Flink vs Cluster'!$G$30:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15914.4</c:v>
+                  <c:v>54377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15065.4</c:v>
+                  <c:v>25296.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27687</c:v>
+                  <c:v>77181.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15394.4</c:v>
+                  <c:v>79388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16869.8</c:v>
+                  <c:v>56757.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3924.4</c:v>
+                  <c:v>28800.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25387.599999999999</c:v>
+                  <c:v>71882.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12987.8</c:v>
+                  <c:v>75183.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34730.400000000001</c:v>
+                  <c:v>96457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34537.800000000003</c:v>
+                  <c:v>88707.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5305.8</c:v>
+                  <c:v>10789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10959.8</c:v>
+                  <c:v>44733.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9398.7999999999993</c:v>
+                  <c:v>23403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3658.4</c:v>
+                  <c:v>34200.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6403.2</c:v>
+                  <c:v>39512.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24865</c:v>
+                  <c:v>50090.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10263.6</c:v>
+                  <c:v>72339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14923.6</c:v>
+                  <c:v>73827.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7592.6</c:v>
+                  <c:v>91612.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10727</c:v>
+                  <c:v>68636.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7811.4</c:v>
+                  <c:v>21259.200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,11 +3668,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="325337696"/>
-        <c:axId val="325338480"/>
+        <c:overlap val="-27"/>
+        <c:axId val="378416712"/>
+        <c:axId val="378414360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325337696"/>
+        <c:axId val="378416712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +3715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325338480"/>
+        <c:crossAx val="378414360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3032,7 +3723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325338480"/>
+        <c:axId val="378414360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325337696"/>
+        <c:crossAx val="378416712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3178,6 +3869,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Queries Execution Time on Flink and Spark - Scale 10.0 - Cluster</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3189,15 +3941,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Flink vs Cluster'!$E$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Flink - Local - 10 GB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Flink</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3209,74 +3953,145 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flink vs Cluster'!$C$4:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$E$30:$E$50</c:f>
+              <c:f>'Flink vs Cluster'!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>53720.2</c:v>
+                  <c:v>27853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24929.8</c:v>
+                  <c:v>12401.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46239</c:v>
+                  <c:v>19329.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49488.2</c:v>
+                  <c:v>19368.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42433.4</c:v>
+                  <c:v>21577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22836.799999999999</c:v>
+                  <c:v>12971.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45890</c:v>
+                  <c:v>19395.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39489.800000000003</c:v>
+                  <c:v>20585.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88543.8</c:v>
+                  <c:v>39152.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32974.400000000001</c:v>
+                  <c:v>20841.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28888.2</c:v>
+                  <c:v>14247.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41763.599999999999</c:v>
+                  <c:v>15372.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28876.799999999999</c:v>
+                  <c:v>10414.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78764.2</c:v>
+                  <c:v>13103.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40272</c:v>
+                  <c:v>23928.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34527.4</c:v>
+                  <c:v>13393.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72062.399999999994</c:v>
+                  <c:v>48031.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72073.2</c:v>
+                  <c:v>42754.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54285.8</c:v>
+                  <c:v>42934.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35424.199999999997</c:v>
+                  <c:v>19664.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32954</c:v>
+                  <c:v>9071.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,15 +4101,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Flink vs Cluster'!$G$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spark - Local - 10 GB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Spark</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3306,74 +4113,145 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flink vs Cluster'!$C$4:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Flink vs Cluster'!$G$30:$G$50</c:f>
+              <c:f>'Flink vs Cluster'!$G$4:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>54377</c:v>
+                  <c:v>33505.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25296.799999999999</c:v>
+                  <c:v>20919.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77181.2</c:v>
+                  <c:v>47282.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79388</c:v>
+                  <c:v>54173.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56757.8</c:v>
+                  <c:v>32895.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28800.400000000001</c:v>
+                  <c:v>12821.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71882.399999999994</c:v>
+                  <c:v>42425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75183.8</c:v>
+                  <c:v>38909.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96457</c:v>
+                  <c:v>46962.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88707.6</c:v>
+                  <c:v>43176.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10789</c:v>
+                  <c:v>12487.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44733.599999999999</c:v>
+                  <c:v>25255.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23403</c:v>
+                  <c:v>13518.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34200.800000000003</c:v>
+                  <c:v>16832.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39512.800000000003</c:v>
+                  <c:v>23346.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50090.6</c:v>
+                  <c:v>21289.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72339</c:v>
+                  <c:v>37688.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73827.8</c:v>
+                  <c:v>45955.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91612.800000000003</c:v>
+                  <c:v>44827.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68636.2</c:v>
+                  <c:v>37919.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21259.200000000001</c:v>
+                  <c:v>14104.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,16 +4267,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="325342008"/>
-        <c:axId val="325336520"/>
+        <c:axId val="378414752"/>
+        <c:axId val="378411616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325342008"/>
+        <c:axId val="378414752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3435,7 +4314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325336520"/>
+        <c:crossAx val="378411616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +4322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325336520"/>
+        <c:axId val="378411616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,6 +4342,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time in Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3494,7 +4429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325342008"/>
+        <c:crossAx val="378414752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3507,8 +4442,617 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Queries Execution Time on Flink and Spark - Scale 100.0 - Cluster </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flink</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flink and Spark 100 GB'!$B$37:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flink and Spark 100 GB'!$C$37:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>123723.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62142.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76657.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91300.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65245.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101238.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75649.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72184.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72907.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98858.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134815.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110078.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>355298.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>265026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170819</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>118034.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spark</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Flink and Spark 100 GB'!$B$37:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v> Query1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Query2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Query4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Query5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Query6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Query7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Query8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Query10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Query12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Query13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Query14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Query15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Query16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Query17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Query18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Query19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Query20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Query22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Flink and Spark 100 GB'!$D$37:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>161943.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196065.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193436.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223872.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268745.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155776.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44108.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129205</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>766494.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77917.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271042.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321854.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>223610.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>173892.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="378417496"/>
+        <c:axId val="378412008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="378417496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378412008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378412008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time in Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378417496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3895,6 +5439,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7887,6 +9471,500 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7954,15 +10032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8024,8 +10102,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -8054,15 +10132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304798</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>384928</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8076,36 +10154,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8135,7 +10183,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8165,7 +10213,72 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>565608</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>282804</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8461,10 +10574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:Q51"/>
+  <dimension ref="C2:AM77"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:I51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q61" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8474,24 +10587,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -9504,24 +11617,24 @@
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="K29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
@@ -9659,7 +11772,7 @@
         <v>24929.8</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
@@ -9705,7 +11818,7 @@
         <v>46239</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
@@ -9751,7 +11864,7 @@
         <v>49488.2</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
@@ -9797,7 +11910,7 @@
         <v>42433.4</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
@@ -9843,7 +11956,7 @@
         <v>22836.799999999999</v>
       </c>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
@@ -9889,7 +12002,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
@@ -9935,7 +12048,7 @@
         <v>39489.800000000003</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
@@ -9981,7 +12094,7 @@
         <v>88543.8</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
@@ -10027,7 +12140,7 @@
         <v>32974.400000000001</v>
       </c>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
@@ -10073,7 +12186,7 @@
         <v>28888.2</v>
       </c>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
@@ -10119,7 +12232,7 @@
         <v>41763.599999999999</v>
       </c>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
@@ -10165,7 +12278,7 @@
         <v>28876.799999999999</v>
       </c>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
@@ -10211,7 +12324,7 @@
         <v>78764.2</v>
       </c>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
@@ -10256,8 +12369,71 @@
         <f t="shared" si="3"/>
         <v>40272</v>
       </c>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="S45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>26</v>
       </c>
@@ -10302,8 +12478,71 @@
         <f t="shared" si="3"/>
         <v>34527.4</v>
       </c>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="S46" s="5">
+        <v>53720.2</v>
+      </c>
+      <c r="T46" s="5">
+        <v>24929.8</v>
+      </c>
+      <c r="U46" s="5">
+        <v>46239</v>
+      </c>
+      <c r="V46" s="5">
+        <v>49488.2</v>
+      </c>
+      <c r="W46" s="5">
+        <v>42433.4</v>
+      </c>
+      <c r="X46" s="5">
+        <v>22836.799999999999</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>45890</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>39489.800000000003</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>88543.8</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>32974.400000000001</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>28888.2</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>41763.599999999999</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>28876.799999999999</v>
+      </c>
+      <c r="AF46" s="5">
+        <v>78764.2</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>40272</v>
+      </c>
+      <c r="AH46" s="5">
+        <v>34527.4</v>
+      </c>
+      <c r="AI46" s="5">
+        <v>72062.399999999994</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>72073.2</v>
+      </c>
+      <c r="AK46" s="5">
+        <v>54285.8</v>
+      </c>
+      <c r="AL46" s="5">
+        <v>35424.199999999997</v>
+      </c>
+      <c r="AM46" s="5">
+        <v>32954</v>
+      </c>
+    </row>
+    <row r="47" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
@@ -10348,8 +12587,71 @@
         <f t="shared" si="3"/>
         <v>72062.399999999994</v>
       </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="S47" s="5">
+        <v>27853</v>
+      </c>
+      <c r="T47" s="5">
+        <v>12401.8</v>
+      </c>
+      <c r="U47" s="5">
+        <v>19329.400000000001</v>
+      </c>
+      <c r="V47" s="5">
+        <v>19368.400000000001</v>
+      </c>
+      <c r="W47" s="5">
+        <v>21577</v>
+      </c>
+      <c r="X47" s="5">
+        <v>12971.4</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>19395.599999999999</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>20585.400000000001</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>39152.400000000001</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>20841.400000000001</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>14247.6</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>15372.4</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>10414.200000000001</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>13103.2</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>23928.6</v>
+      </c>
+      <c r="AH47" s="5">
+        <v>13393.4</v>
+      </c>
+      <c r="AI47" s="5">
+        <v>48031.8</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>42754.8</v>
+      </c>
+      <c r="AK47" s="5">
+        <v>42934.2</v>
+      </c>
+      <c r="AL47" s="5">
+        <v>19664.8</v>
+      </c>
+      <c r="AM47" s="5">
+        <v>9071.4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -10394,8 +12696,92 @@
         <f t="shared" si="3"/>
         <v>72073.2</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <f>S46/S47</f>
+        <v>1.9287042688399811</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48:AM48" si="4">T46/T47</f>
+        <v>2.0101759422019385</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>2.3921590944364541</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="4"/>
+        <v>2.5551000598913691</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="4"/>
+        <v>1.9666033276173704</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="4"/>
+        <v>1.7605501333703377</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="4"/>
+        <v>2.3660005362040879</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="4"/>
+        <v>1.918340182848038</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>2.2615165353848039</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="4"/>
+        <v>1.5821585881946509</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="4"/>
+        <v>2.0275835930261938</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="4"/>
+        <v>2.7167911321589342</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="4"/>
+        <v>2.7728294060033414</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="4"/>
+        <v>6.011065999145246</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="4"/>
+        <v>1.6830069456633485</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="4"/>
+        <v>2.5779413741096362</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="4"/>
+        <v>1.5003060472437009</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="4"/>
+        <v>1.6857335316736364</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="4"/>
+        <v>1.2643952839461317</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="4"/>
+        <v>1.8014014889548837</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="4"/>
+        <v>3.6327358511365393</v>
+      </c>
+    </row>
+    <row r="49" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
@@ -10441,7 +12827,7 @@
         <v>54285.8</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>20</v>
       </c>
@@ -10487,7 +12873,7 @@
         <v>35424.199999999997</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>21</v>
       </c>
@@ -10531,6 +12917,313 @@
       <c r="Q51" s="1">
         <f t="shared" si="3"/>
         <v>32954</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="S52" s="1">
+        <v>1.9287042688399811</v>
+      </c>
+      <c r="T52" s="1">
+        <v>2.0101759422019385</v>
+      </c>
+      <c r="U52" s="1">
+        <v>2.3921590944364541</v>
+      </c>
+      <c r="V52" s="1">
+        <v>2.5551000598913691</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1.9666033276173704</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1.7605501333703377</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>2.3660005362040879</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>1.918340182848038</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>2.2615165353848039</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>1.5821585881946509</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>2.0275835930261938</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>2.7167911321589342</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>2.7728294060033414</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>6.011065999145246</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>1.6830069456633485</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>2.5779413741096362</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>1.5003060472437009</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>1.6857335316736364</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>1.2643952839461317</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1.8014014889548837</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>3.6327358511365393</v>
+      </c>
+    </row>
+    <row r="54" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1.9287042688399811</v>
+      </c>
+    </row>
+    <row r="55" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U55" s="1">
+        <v>2.0101759422019385</v>
+      </c>
+    </row>
+    <row r="56" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U56" s="1">
+        <v>2.3921590944364541</v>
+      </c>
+    </row>
+    <row r="57" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="1">
+        <v>2.5551000598913691</v>
+      </c>
+    </row>
+    <row r="58" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1.9666033276173704</v>
+      </c>
+    </row>
+    <row r="59" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1.7605501333703377</v>
+      </c>
+    </row>
+    <row r="60" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="1">
+        <v>2.3660005362040879</v>
+      </c>
+    </row>
+    <row r="61" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1.918340182848038</v>
+      </c>
+    </row>
+    <row r="62" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="1">
+        <v>2.2615165353848039</v>
+      </c>
+    </row>
+    <row r="63" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1.5821585881946509</v>
+      </c>
+    </row>
+    <row r="64" spans="3:39" x14ac:dyDescent="0.3">
+      <c r="T64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U64" s="1">
+        <v>2.0275835930261938</v>
+      </c>
+    </row>
+    <row r="65" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+    </row>
+    <row r="66" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U66" s="1">
+        <v>2.7167911321589342</v>
+      </c>
+    </row>
+    <row r="67" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U67" s="1">
+        <v>2.7728294060033414</v>
+      </c>
+    </row>
+    <row r="68" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U68" s="1">
+        <v>6.011065999145246</v>
+      </c>
+    </row>
+    <row r="69" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1.6830069456633485</v>
+      </c>
+    </row>
+    <row r="70" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U70" s="1">
+        <v>2.5779413741096362</v>
+      </c>
+    </row>
+    <row r="71" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U71" s="1">
+        <v>1.5003060472437009</v>
+      </c>
+    </row>
+    <row r="72" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1.6857335316736364</v>
+      </c>
+    </row>
+    <row r="73" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1.2643952839461317</v>
+      </c>
+    </row>
+    <row r="74" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="1">
+        <v>1.8014014889548837</v>
+      </c>
+    </row>
+    <row r="75" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="1">
+        <v>3.6327358511365393</v>
+      </c>
+    </row>
+    <row r="77" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <f>AVERAGE(U54:U75)</f>
+        <v>2.3054809200976485</v>
       </c>
     </row>
   </sheetData>
@@ -10541,16 +13234,17 @@
     <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:Q51"/>
+  <dimension ref="C2:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I51"/>
+    <sheetView showGridLines="0" topLeftCell="N84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10560,24 +13254,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -11636,24 +14330,24 @@
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -12709,6 +15403,522 @@
       <c r="Q51" s="1">
         <f t="shared" si="3"/>
         <v>21259.200000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5">
+        <v>54377</v>
+      </c>
+      <c r="M56" s="5">
+        <v>33505.199999999997</v>
+      </c>
+      <c r="N56">
+        <f>L56/M56</f>
+        <v>1.6229421104783737</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="5">
+        <v>25296.799999999999</v>
+      </c>
+      <c r="M57" s="5">
+        <v>20919.8</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57:N77" si="4">L57/M57</f>
+        <v>1.2092276216789835</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="5">
+        <v>77181.2</v>
+      </c>
+      <c r="M58" s="5">
+        <v>47282.2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>1.6323521325149846</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="5">
+        <v>79388</v>
+      </c>
+      <c r="M59" s="5">
+        <v>54173.4</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>1.4654424496154939</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="5">
+        <v>56757.8</v>
+      </c>
+      <c r="M60" s="5">
+        <v>32895.4</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>1.7254023358889086</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="5">
+        <v>28800.400000000001</v>
+      </c>
+      <c r="M61" s="5">
+        <v>12821.6</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>2.246240718787047</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="5">
+        <v>71882.399999999994</v>
+      </c>
+      <c r="M62" s="5">
+        <v>42425</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>1.6943406010606952</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="5">
+        <v>75183.8</v>
+      </c>
+      <c r="M63" s="5">
+        <v>38909.800000000003</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>1.9322587111730205</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="5">
+        <v>96457</v>
+      </c>
+      <c r="M64" s="5">
+        <v>46962.6</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>2.053910984485527</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="5">
+        <v>88707.6</v>
+      </c>
+      <c r="M65" s="5">
+        <v>43176.4</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>2.0545390537423223</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="5">
+        <v>10789</v>
+      </c>
+      <c r="M66" s="5">
+        <v>12487.6</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>0.86397706524872675</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="5">
+        <v>44733.599999999999</v>
+      </c>
+      <c r="M67" s="5">
+        <v>25255.8</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="4"/>
+        <v>1.7712208680778276</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="5">
+        <v>23403</v>
+      </c>
+      <c r="M68" s="5">
+        <v>13518.2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>1.7312216123448387</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="5">
+        <v>34200.800000000003</v>
+      </c>
+      <c r="M69" s="5">
+        <v>16832.8</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>2.0317950667743929</v>
+      </c>
+    </row>
+    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="5">
+        <v>39512.800000000003</v>
+      </c>
+      <c r="M70" s="5">
+        <v>23346.2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>1.6924724366278026</v>
+      </c>
+    </row>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" s="5">
+        <v>50090.6</v>
+      </c>
+      <c r="M71" s="5">
+        <v>21289.4</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>2.3528422595282157</v>
+      </c>
+    </row>
+    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="5">
+        <v>72339</v>
+      </c>
+      <c r="M72" s="5">
+        <v>37688.800000000003</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>1.9193765787183459</v>
+      </c>
+    </row>
+    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="5">
+        <v>73827.8</v>
+      </c>
+      <c r="M73" s="5">
+        <v>45955.6</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>1.6065027983531932</v>
+      </c>
+    </row>
+    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="5">
+        <v>91612.800000000003</v>
+      </c>
+      <c r="M74" s="5">
+        <v>44827.4</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>2.0436786429728246</v>
+      </c>
+    </row>
+    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="5">
+        <v>68636.2</v>
+      </c>
+      <c r="M75" s="5">
+        <v>37919.800000000003</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>1.8100359179109593</v>
+      </c>
+    </row>
+    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="5">
+        <v>231939.20000000001</v>
+      </c>
+      <c r="M76" s="5">
+        <v>173409.2</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="4"/>
+        <v>1.3375253446760611</v>
+      </c>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="5">
+        <v>21259.200000000001</v>
+      </c>
+      <c r="M77" s="5">
+        <v>14104.2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="4"/>
+        <v>1.5072956991534436</v>
+      </c>
+    </row>
+    <row r="85" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1.6229421104783737</v>
+      </c>
+    </row>
+    <row r="86" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1.2092276216789835</v>
+      </c>
+    </row>
+    <row r="87" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R87" s="1">
+        <v>1.6323521325149846</v>
+      </c>
+    </row>
+    <row r="88" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R88" s="1">
+        <v>1.4654424496154939</v>
+      </c>
+    </row>
+    <row r="89" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R89" s="1">
+        <v>1.7254023358889086</v>
+      </c>
+    </row>
+    <row r="90" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R90" s="1">
+        <v>2.246240718787047</v>
+      </c>
+    </row>
+    <row r="91" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="1">
+        <v>1.6943406010606952</v>
+      </c>
+    </row>
+    <row r="92" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92" s="1">
+        <v>1.9322587111730205</v>
+      </c>
+    </row>
+    <row r="93" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="1">
+        <v>2.053910984485527</v>
+      </c>
+    </row>
+    <row r="94" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94" s="1">
+        <v>2.0545390537423223</v>
+      </c>
+    </row>
+    <row r="95" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0.86397706524872675</v>
+      </c>
+    </row>
+    <row r="96" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R97" s="1">
+        <v>1.7712208680778276</v>
+      </c>
+    </row>
+    <row r="98" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1.7312216123448387</v>
+      </c>
+    </row>
+    <row r="99" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R99" s="1">
+        <v>2.0317950667743929</v>
+      </c>
+    </row>
+    <row r="100" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="1">
+        <v>1.6924724366278026</v>
+      </c>
+    </row>
+    <row r="101" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R101" s="1">
+        <v>2.3528422595282157</v>
+      </c>
+    </row>
+    <row r="102" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R102" s="1">
+        <v>1.9193765787183459</v>
+      </c>
+    </row>
+    <row r="103" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R103" s="1">
+        <v>1.6065027983531932</v>
+      </c>
+    </row>
+    <row r="104" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R104" s="1">
+        <v>2.0436786429728246</v>
+      </c>
+    </row>
+    <row r="105" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1.8100359179109593</v>
+      </c>
+    </row>
+    <row r="106" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R106" s="1">
+        <v>1.3375253446760611</v>
+      </c>
+    </row>
+    <row r="107" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1.5072956991534436</v>
+      </c>
+    </row>
+    <row r="111" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="R111">
+        <f>AVERAGE(R85:R107)</f>
+        <v>1.7411182277187265</v>
       </c>
     </row>
   </sheetData>
@@ -12719,7 +15929,8 @@
     <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12727,8 +15938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="H21" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12739,13 +15950,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -13122,13 +16333,13 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -13512,4 +16723,1107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>129439</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123437</v>
+      </c>
+      <c r="F5" s="1">
+        <v>118294</v>
+      </c>
+      <c r="G5" s="1">
+        <f>AVERAGE(D5:F5)</f>
+        <v>123723.33333333333</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>154738</v>
+      </c>
+      <c r="K5" s="1">
+        <v>163252</v>
+      </c>
+      <c r="L5" s="1">
+        <v>163865</v>
+      </c>
+      <c r="M5" s="1">
+        <v>165962</v>
+      </c>
+      <c r="N5" s="1">
+        <v>161899</v>
+      </c>
+      <c r="O5" s="1">
+        <f>AVERAGE(J5:N5)</f>
+        <v>161943.20000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>74803</v>
+      </c>
+      <c r="E6" s="1">
+        <v>53870</v>
+      </c>
+      <c r="F6" s="1">
+        <v>57754</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G22" si="0">AVERAGE(D6:F6)</f>
+        <v>62142.333333333336</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>78754</v>
+      </c>
+      <c r="K6" s="1">
+        <v>87459</v>
+      </c>
+      <c r="L6" s="1">
+        <v>74928</v>
+      </c>
+      <c r="M6" s="1">
+        <v>73378</v>
+      </c>
+      <c r="N6" s="1">
+        <v>75151</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O26" si="1">AVERAGE(J6:N6)</f>
+        <v>77934</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>94075</v>
+      </c>
+      <c r="E7" s="1">
+        <v>68558</v>
+      </c>
+      <c r="F7" s="1">
+        <v>67339</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>76657.333333333328</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>205748</v>
+      </c>
+      <c r="K7" s="1">
+        <v>226189</v>
+      </c>
+      <c r="L7" s="1">
+        <v>209625</v>
+      </c>
+      <c r="M7" s="1">
+        <v>210313</v>
+      </c>
+      <c r="N7" s="1">
+        <v>211019</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>212578.8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>95909</v>
+      </c>
+      <c r="E8" s="1">
+        <v>88242</v>
+      </c>
+      <c r="F8" s="1">
+        <v>89751</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>91300.666666666672</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>323301</v>
+      </c>
+      <c r="K8" s="1">
+        <v>311503</v>
+      </c>
+      <c r="L8" s="1">
+        <v>345093</v>
+      </c>
+      <c r="M8" s="1">
+        <v>336259</v>
+      </c>
+      <c r="N8" s="1">
+        <v>358394</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>334910</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>69670</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63594</v>
+      </c>
+      <c r="F9" s="1">
+        <v>62473</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>65245.666666666664</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>188165</v>
+      </c>
+      <c r="K9" s="1">
+        <v>200405</v>
+      </c>
+      <c r="L9" s="1">
+        <v>182638</v>
+      </c>
+      <c r="M9" s="1">
+        <v>200235</v>
+      </c>
+      <c r="N9" s="1">
+        <v>208884</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>196065.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>95972</v>
+      </c>
+      <c r="E10" s="1">
+        <v>96126</v>
+      </c>
+      <c r="F10" s="1">
+        <v>108076</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>100058</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>128274</v>
+      </c>
+      <c r="K10" s="1">
+        <v>125646</v>
+      </c>
+      <c r="L10" s="1">
+        <v>121269</v>
+      </c>
+      <c r="M10" s="1">
+        <v>112348</v>
+      </c>
+      <c r="N10" s="1">
+        <v>121538</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>121815</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100923</v>
+      </c>
+      <c r="E11" s="1">
+        <v>101434</v>
+      </c>
+      <c r="F11" s="1">
+        <v>101359</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>101238.66666666667</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>185998</v>
+      </c>
+      <c r="K11" s="1">
+        <v>188370</v>
+      </c>
+      <c r="L11" s="1">
+        <v>224180</v>
+      </c>
+      <c r="M11" s="1">
+        <v>183790</v>
+      </c>
+      <c r="N11" s="1">
+        <v>184844</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>193436.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>74199</v>
+      </c>
+      <c r="E12" s="1">
+        <v>76884</v>
+      </c>
+      <c r="F12" s="1">
+        <v>75866</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>75649.666666666672</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1">
+        <v>217726</v>
+      </c>
+      <c r="K12" s="1">
+        <v>213985</v>
+      </c>
+      <c r="L12" s="1">
+        <v>215053</v>
+      </c>
+      <c r="M12" s="1">
+        <v>242059</v>
+      </c>
+      <c r="N12" s="1">
+        <v>230539</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>223872.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>70560</v>
+      </c>
+      <c r="E13" s="1">
+        <v>74856</v>
+      </c>
+      <c r="F13" s="1">
+        <v>71137</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>72184.333333333328</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>249150</v>
+      </c>
+      <c r="K13" s="1">
+        <v>261906</v>
+      </c>
+      <c r="L13" s="1">
+        <v>272683</v>
+      </c>
+      <c r="M13" s="1">
+        <v>292818</v>
+      </c>
+      <c r="N13" s="1">
+        <v>256854</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>266682.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>81567</v>
+      </c>
+      <c r="E14" s="1">
+        <v>67602</v>
+      </c>
+      <c r="F14" s="1">
+        <v>69554</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>72907.666666666672</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <v>302555</v>
+      </c>
+      <c r="K14" s="1">
+        <v>264791</v>
+      </c>
+      <c r="L14" s="1">
+        <v>266673</v>
+      </c>
+      <c r="M14" s="1">
+        <v>300741</v>
+      </c>
+      <c r="N14" s="1">
+        <v>208969</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>268745.8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>82192</v>
+      </c>
+      <c r="E15" s="1">
+        <v>81687</v>
+      </c>
+      <c r="F15" s="1">
+        <v>132696</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>98858.333333333328</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>56214</v>
+      </c>
+      <c r="K15" s="1">
+        <v>64475</v>
+      </c>
+      <c r="L15" s="1">
+        <v>69449</v>
+      </c>
+      <c r="M15" s="1">
+        <v>61249</v>
+      </c>
+      <c r="N15" s="1">
+        <v>66823</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>63642</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>129227</v>
+      </c>
+      <c r="E16" s="1">
+        <v>136288</v>
+      </c>
+      <c r="F16" s="1">
+        <v>138931</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>134815.33333333334</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>163086</v>
+      </c>
+      <c r="K16" s="1">
+        <v>146816</v>
+      </c>
+      <c r="L16" s="1">
+        <v>155575</v>
+      </c>
+      <c r="M16" s="1">
+        <v>163957</v>
+      </c>
+      <c r="N16" s="1">
+        <v>149450</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>155776.79999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123757</v>
+      </c>
+      <c r="E17" s="1">
+        <v>116960</v>
+      </c>
+      <c r="F17" s="1">
+        <v>89518</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>110078.33333333333</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1">
+        <v>47654</v>
+      </c>
+      <c r="K17" s="1">
+        <v>43927</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45133</v>
+      </c>
+      <c r="M17" s="1">
+        <v>41363</v>
+      </c>
+      <c r="N17" s="1">
+        <v>42466</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>44108.6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>375926</v>
+      </c>
+      <c r="E18" s="1">
+        <v>335382</v>
+      </c>
+      <c r="F18" s="1">
+        <v>354588</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>355298.66666666669</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>125433</v>
+      </c>
+      <c r="K18" s="1">
+        <v>128061</v>
+      </c>
+      <c r="L18" s="1">
+        <v>132811</v>
+      </c>
+      <c r="M18" s="1">
+        <v>125928</v>
+      </c>
+      <c r="N18" s="1">
+        <v>133792</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>129205</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>274335</v>
+      </c>
+      <c r="E19" s="1">
+        <v>255877</v>
+      </c>
+      <c r="F19" s="1">
+        <v>264866</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>265026</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>623304</v>
+      </c>
+      <c r="K19" s="1">
+        <v>659973</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1240208</v>
+      </c>
+      <c r="M19" s="1">
+        <v>647865</v>
+      </c>
+      <c r="N19" s="1">
+        <v>661121</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>766494.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>156557</v>
+      </c>
+      <c r="E20" s="1">
+        <v>176080</v>
+      </c>
+      <c r="F20" s="1">
+        <v>179820</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>170819</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>83291</v>
+      </c>
+      <c r="K20" s="1">
+        <v>79752</v>
+      </c>
+      <c r="L20" s="1">
+        <v>73121</v>
+      </c>
+      <c r="M20" s="1">
+        <v>77079</v>
+      </c>
+      <c r="N20" s="1">
+        <v>76345</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>77917.600000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>134671</v>
+      </c>
+      <c r="E21" s="1">
+        <v>115755</v>
+      </c>
+      <c r="F21" s="1">
+        <v>103678</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>118034.66666666667</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <v>268056</v>
+      </c>
+      <c r="K21" s="1">
+        <v>291004</v>
+      </c>
+      <c r="L21" s="1">
+        <v>247342</v>
+      </c>
+      <c r="M21" s="1">
+        <v>276244</v>
+      </c>
+      <c r="N21" s="1">
+        <v>272567</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>271042.59999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>54513</v>
+      </c>
+      <c r="E22" s="1">
+        <v>60129</v>
+      </c>
+      <c r="F22" s="1">
+        <v>55854</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>56832</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <v>327567</v>
+      </c>
+      <c r="K22" s="1">
+        <v>300970</v>
+      </c>
+      <c r="L22" s="1">
+        <v>344169</v>
+      </c>
+      <c r="M22" s="1">
+        <v>314562</v>
+      </c>
+      <c r="N22" s="1">
+        <v>322003</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>321854.2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1">
+        <v>356298</v>
+      </c>
+      <c r="K23" s="1">
+        <v>368562</v>
+      </c>
+      <c r="L23" s="1">
+        <v>139407</v>
+      </c>
+      <c r="M23" s="1">
+        <v>130387</v>
+      </c>
+      <c r="N23" s="1">
+        <v>123397</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>223610.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1">
+        <v>172585</v>
+      </c>
+      <c r="K24" s="1">
+        <v>173502</v>
+      </c>
+      <c r="L24" s="1">
+        <v>183255</v>
+      </c>
+      <c r="M24" s="1">
+        <v>173218</v>
+      </c>
+      <c r="N24" s="1">
+        <v>166901</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>173892.2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1106243</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1134957</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1120600</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1">
+        <v>77419</v>
+      </c>
+      <c r="K26" s="1">
+        <v>74552</v>
+      </c>
+      <c r="L26" s="1">
+        <v>90849</v>
+      </c>
+      <c r="M26" s="1">
+        <v>80968</v>
+      </c>
+      <c r="N26" s="1">
+        <v>99297</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>84617</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>123723.33333333333</v>
+      </c>
+      <c r="D37" s="4">
+        <v>161943.20000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>62142.333333333336</v>
+      </c>
+      <c r="D38" s="4">
+        <v>77934</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>76657.333333333328</v>
+      </c>
+      <c r="D39" s="4">
+        <v>334910</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4">
+        <v>91300.666666666672</v>
+      </c>
+      <c r="D40" s="4">
+        <v>196065.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>65245.666666666664</v>
+      </c>
+      <c r="D41" s="4">
+        <v>121815</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4">
+        <v>100058</v>
+      </c>
+      <c r="D42" s="4">
+        <v>193436.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>101238.66666666667</v>
+      </c>
+      <c r="D43" s="4">
+        <v>223872.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4">
+        <v>75649.666666666672</v>
+      </c>
+      <c r="D44" s="4">
+        <v>268745.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4">
+        <v>72184.333333333328</v>
+      </c>
+      <c r="D45" s="4">
+        <v>155776.79999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4">
+        <v>72907.666666666672</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44108.6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="4">
+        <v>98858.333333333328</v>
+      </c>
+      <c r="D47" s="4">
+        <v>129205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4">
+        <v>134815.33333333334</v>
+      </c>
+      <c r="D48" s="1">
+        <v>766494.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4">
+        <v>110078.33333333333</v>
+      </c>
+      <c r="D49" s="4">
+        <v>77917.600000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4">
+        <v>355298.66666666669</v>
+      </c>
+      <c r="D50" s="4">
+        <v>271042.59999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4">
+        <v>265026</v>
+      </c>
+      <c r="D51" s="4">
+        <v>321854.2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4">
+        <v>170819</v>
+      </c>
+      <c r="D52" s="4">
+        <v>223610.2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="4">
+        <v>118034.66666666667</v>
+      </c>
+      <c r="D53" s="4">
+        <v>173892.2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="4">
+        <v>56832</v>
+      </c>
+      <c r="D54" s="4">
+        <v>84617</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="I3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TPCH-Batch-Benchmarking-Values/Final and Spark - Aggregate and Formated.xlsx
+++ b/TPCH-Batch-Benchmarking-Values/Final and Spark - Aggregate and Formated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flink" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="377754904"/>
-        <c:axId val="377760392"/>
+        <c:axId val="297086096"/>
+        <c:axId val="297084528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377754904"/>
+        <c:axId val="297086096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377760392"/>
+        <c:crossAx val="297084528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377760392"/>
+        <c:axId val="297084528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377754904"/>
+        <c:crossAx val="297086096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,11 +1058,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="377759608"/>
-        <c:axId val="377758040"/>
+        <c:axId val="297084920"/>
+        <c:axId val="297084136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377759608"/>
+        <c:axId val="297084920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377758040"/>
+        <c:crossAx val="297084136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377758040"/>
+        <c:axId val="297084136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377759608"/>
+        <c:crossAx val="297084920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,11 +1515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="377758432"/>
-        <c:axId val="377755688"/>
+        <c:axId val="297085704"/>
+        <c:axId val="333178584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377758432"/>
+        <c:axId val="297085704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377755688"/>
+        <c:crossAx val="333178584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1569,7 +1569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377755688"/>
+        <c:axId val="333178584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377758432"/>
+        <c:crossAx val="297085704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2125,11 +2125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="377759216"/>
-        <c:axId val="377756864"/>
+        <c:axId val="333180544"/>
+        <c:axId val="333179368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377759216"/>
+        <c:axId val="333180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377756864"/>
+        <c:crossAx val="333179368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377756864"/>
+        <c:axId val="333179368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377759216"/>
+        <c:crossAx val="333180544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,7 +2413,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2780,11 +2779,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="378415144"/>
-        <c:axId val="378413968"/>
+        <c:axId val="333177800"/>
+        <c:axId val="333176624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378415144"/>
+        <c:axId val="333177800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378413968"/>
+        <c:crossAx val="333176624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2835,7 +2834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378413968"/>
+        <c:axId val="333176624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2953,7 +2951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378415144"/>
+        <c:crossAx val="333177800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2967,7 +2965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3258,11 +3255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="378415928"/>
-        <c:axId val="378416320"/>
+        <c:axId val="333180152"/>
+        <c:axId val="333175448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378415928"/>
+        <c:axId val="333180152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378416320"/>
+        <c:crossAx val="333175448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3312,7 +3309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378416320"/>
+        <c:axId val="333175448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378415928"/>
+        <c:crossAx val="333180152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,7 +3374,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3669,11 +3665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="378416712"/>
-        <c:axId val="378414360"/>
+        <c:axId val="333173096"/>
+        <c:axId val="333176232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378416712"/>
+        <c:axId val="333173096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378414360"/>
+        <c:crossAx val="333176232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3723,7 +3719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378414360"/>
+        <c:axId val="333176232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3774,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378416712"/>
+        <c:crossAx val="333173096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,7 +3784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3900,7 +3895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4267,11 +4261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="378414752"/>
-        <c:axId val="378411616"/>
+        <c:axId val="333178192"/>
+        <c:axId val="333178976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378414752"/>
+        <c:axId val="333178192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4314,7 +4308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378411616"/>
+        <c:crossAx val="333178976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4322,7 +4316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378411616"/>
+        <c:axId val="333178976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4368,7 +4362,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4429,7 +4422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378414752"/>
+        <c:crossAx val="333178192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4443,7 +4436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4884,11 +4876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="378417496"/>
-        <c:axId val="378412008"/>
+        <c:axId val="333173880"/>
+        <c:axId val="333174272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378417496"/>
+        <c:axId val="333173880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4925,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378412008"/>
+        <c:crossAx val="333174272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4933,7 +4925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378412008"/>
+        <c:axId val="333174272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378417496"/>
+        <c:crossAx val="333173880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10576,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AM77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q61" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+    <sheetView showGridLines="0" topLeftCell="Q45" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66:U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13243,8 +13235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R111" sqref="R111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85:R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15824,100 +15816,96 @@
       </c>
     </row>
     <row r="96" spans="17:18" x14ac:dyDescent="0.3">
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
+      <c r="Q96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R96" s="1">
+        <v>1.7712208680778276</v>
+      </c>
     </row>
     <row r="97" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q97" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R97" s="1">
-        <v>1.7712208680778276</v>
+        <v>1.7312216123448387</v>
       </c>
     </row>
     <row r="98" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R98" s="1">
-        <v>1.7312216123448387</v>
+        <v>2.0317950667743929</v>
       </c>
     </row>
     <row r="99" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q99" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R99" s="1">
-        <v>2.0317950667743929</v>
+        <v>1.6924724366278026</v>
       </c>
     </row>
     <row r="100" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q100" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R100" s="1">
-        <v>1.6924724366278026</v>
+        <v>2.3528422595282157</v>
       </c>
     </row>
     <row r="101" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q101" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="R101" s="1">
-        <v>2.3528422595282157</v>
+        <v>1.9193765787183459</v>
       </c>
     </row>
     <row r="102" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q102" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R102" s="1">
-        <v>1.9193765787183459</v>
+        <v>1.6065027983531932</v>
       </c>
     </row>
     <row r="103" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q103" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R103" s="1">
-        <v>1.6065027983531932</v>
+        <v>2.0436786429728246</v>
       </c>
     </row>
     <row r="104" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q104" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R104" s="1">
-        <v>2.0436786429728246</v>
+        <v>1.8100359179109593</v>
       </c>
     </row>
     <row r="105" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q105" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="R105" s="1">
-        <v>1.8100359179109593</v>
+        <v>1.3375253446760611</v>
       </c>
     </row>
     <row r="106" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q106" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="R106" s="1">
-        <v>1.3375253446760611</v>
-      </c>
-    </row>
-    <row r="107" spans="17:18" x14ac:dyDescent="0.3">
-      <c r="Q107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R107" s="1">
         <v>1.5072956991534436</v>
       </c>
     </row>
     <row r="111" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R111">
-        <f>AVERAGE(R85:R107)</f>
+        <f>AVERAGE(R85:R106)</f>
         <v>1.7411182277187265</v>
       </c>
     </row>
